--- a/Each_day_record.xlsx
+++ b/Each_day_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -54,18 +54,27 @@
   <si>
     <t>holiday</t>
   </si>
+  <si>
+    <t>17/7/2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,14 +93,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +443,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,6 +476,285 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -753,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,39 +1075,38 @@
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
